--- a/doc/thesis/pictures/resultate/loesung1/loesung1-1/resultate.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/loesung1-1/resultate.xlsx
@@ -37,7 +37,7 @@
     <t>Genauigkeit Lösung 0</t>
   </si>
   <si>
-    <t>Ist-zustand</t>
+    <t>Ist-Zustand</t>
   </si>
   <si>
     <t>DCT</t>
@@ -409,6 +409,76 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ist-Zustand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>858.70933333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5802771.0418897802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -417,12 +487,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266388264"/>
-        <c:axId val="266390616"/>
+        <c:axId val="352556424"/>
+        <c:axId val="352555248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266388264"/>
+        <c:axId val="352556424"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -543,12 +614,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266390616"/>
+        <c:crossAx val="352555248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266390616"/>
+        <c:axId val="352555248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +732,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266388264"/>
+        <c:crossAx val="352556424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1335,16 +1406,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>573676</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>130084</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>185056</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257991</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>89263</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1655,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q9:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
